--- a/vaq ETABS/PROYECTO/excel proyecto.xlsx
+++ b/vaq ETABS/PROYECTO/excel proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98433488-D257-4627-AB9C-1BF434B3167F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BDBBE-CD08-4AC0-9056-4BE29422B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C923F62-14FA-4C69-84B3-DA06D324625F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C923F62-14FA-4C69-84B3-DA06D324625F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t xml:space="preserve">Materiales </t>
   </si>
@@ -78,56 +78,195 @@
     <t>hz=</t>
   </si>
   <si>
-    <t>(Columnas )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Vigas, Losas y Cimientos) </t>
-  </si>
-  <si>
     <t xml:space="preserve">INFORMACION GENERAL DE LA ESTRUCTURA </t>
   </si>
   <si>
     <t>VIGAS</t>
   </si>
   <si>
-    <t>V40X25</t>
-  </si>
-  <si>
-    <t>f'c = 210 kgf/cm2 (Vigas, losas y cimientos )</t>
-  </si>
-  <si>
-    <t>V45X25</t>
-  </si>
-  <si>
-    <t>V50X25</t>
-  </si>
-  <si>
-    <t>V35X25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Voladizo </t>
   </si>
   <si>
     <t xml:space="preserve">COLUMNA </t>
   </si>
   <si>
-    <t>35X35</t>
-  </si>
-  <si>
-    <t>f'c = 280 kgf/cm2 (Columnas)</t>
-  </si>
-  <si>
     <t>LOSA</t>
   </si>
   <si>
-    <t>Losa12</t>
+    <t xml:space="preserve">Predimensionamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigas </t>
+  </si>
+  <si>
+    <t>Direccion X-X</t>
+  </si>
+  <si>
+    <t>L=</t>
+  </si>
+  <si>
+    <t>L/14</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>L/10</t>
+  </si>
+  <si>
+    <t>h/2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>2h/3</t>
+  </si>
+  <si>
+    <t>DireccionY-Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columnas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losa </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>X-X</t>
+  </si>
+  <si>
+    <t>Y-Y</t>
+  </si>
+  <si>
+    <t>f'c = 280kgf/cm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f'c = 280 kgf/cm2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f'c = 210 kgf/cm2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propiedad de Material </t>
+  </si>
+  <si>
+    <t>f'c = 210 kgf/cm2</t>
+  </si>
+  <si>
+    <t>Losas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigas, Columnas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propiedades de Materiales   </t>
+  </si>
+  <si>
+    <t>Vvoladizo35X25cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SobreCarga </t>
+  </si>
+  <si>
+    <t>Integración de cargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga Muerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntrePiso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relleno o nivelación= </t>
+  </si>
+  <si>
+    <t>kgf/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga por piso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabado en cara inferior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalaciones </t>
+  </si>
+  <si>
+    <t>Total entrepiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techo </t>
+  </si>
+  <si>
+    <t>Carga por pañuelos(pendientes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muros Fachada </t>
+  </si>
+  <si>
+    <t>kgf/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muros Interiores </t>
+  </si>
+  <si>
+    <t>Muro de techo fachada</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga Viva </t>
+  </si>
+  <si>
+    <t>Entrepiso de Apartamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormitorios </t>
+  </si>
+  <si>
+    <t>Pasillos</t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocina y Comedor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balcon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga Viva de techo </t>
+  </si>
+  <si>
+    <t>Muros</t>
+  </si>
+  <si>
+    <t>Total Techo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;m&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;cm&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +298,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,30 +320,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,26 +345,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,17 +760,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E852CF4-0565-428E-91EE-10090B20FCE8}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -570,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -584,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -639,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -650,12 +872,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -666,91 +888,674 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <f>B27/14</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="5">
+        <f>B27/10</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <f>B30/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="5">
+        <f>2*B30/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="str">
+        <f>CONCATENATE("VX ",B30*100,"cm X ",B33*100,"cm")</f>
+        <v>VX 50cm X 30cm</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <f>B38/14</f>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="C41" s="5">
+        <f>B38/10</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <f>B41/2</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="5">
+        <f>2*B41/3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="str">
+        <f>CONCATENATE("VY ",B41*100,"cm X ",B44*100,"cm")</f>
+        <v>VY 45cm X 25cm</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>45</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="str">
+        <f>CONCATENATE( "C ", A51, "cm X ",B51,"cm")</f>
+        <v>C 45cm X 45cm</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="str">
+        <f>CONCATENATE( " Losa= ", B60, " cm")</f>
+        <v xml:space="preserve"> Losa= 13 cm</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+    </row>
+    <row r="68" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="15" t="str">
+        <f>A35</f>
+        <v>VX 50cm X 30cm</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="15" t="str">
+        <f>A46</f>
+        <v>VY 45cm X 25cm</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2" t="s">
+      <c r="D75" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="str">
+        <f>A53</f>
+        <v>C 45cm X 45cm</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="9"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="9"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D79" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="str">
+        <f>A62</f>
+        <v xml:space="preserve"> Losa= 13 cm</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88">
+        <f>1.5*35</f>
+        <v>52.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89">
+        <v>77</v>
+      </c>
+      <c r="E89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <f>2.2*5</f>
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19">
+        <v>15</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1">
+        <f>SUM(D88:D91)</f>
+        <v>155.5</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95">
+        <f>40*1.5</f>
+        <v>60</v>
+      </c>
+      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96">
+        <f>2.2*5</f>
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19">
+        <v>15</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1">
+        <f>SUM(D95:D97)</f>
+        <v>86</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104">
+        <v>500</v>
+      </c>
+      <c r="E104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105">
+        <v>500</v>
+      </c>
+      <c r="E105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106">
+        <v>500</v>
+      </c>
+      <c r="E106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107">
+        <v>500</v>
+      </c>
+      <c r="E107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108">
+        <v>500</v>
+      </c>
+      <c r="E108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109">
+        <v>500</v>
+      </c>
+      <c r="E109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113">
+        <v>550</v>
+      </c>
+      <c r="E113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114">
+        <v>400</v>
+      </c>
+      <c r="E114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115">
+        <v>150</v>
+      </c>
+      <c r="E115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+      <c r="E118" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C26:D28"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:D38"/>
+  <mergeCells count="24">
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D71:E72"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33 B44" xr:uid="{F380D85B-88D6-4D3E-B731-B16F9271F5AB}">
+      <formula1>E33</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vaq ETABS/PROYECTO/excel proyecto.xlsx
+++ b/vaq ETABS/PROYECTO/excel proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BDBBE-CD08-4AC0-9056-4BE29422B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DFBC2-9A4F-4C4E-865B-2D40CDEE58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C923F62-14FA-4C69-84B3-DA06D324625F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C923F62-14FA-4C69-84B3-DA06D324625F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t xml:space="preserve">Materiales </t>
   </si>
@@ -171,9 +171,6 @@
     <t>Vvoladizo35X25cm</t>
   </si>
   <si>
-    <t xml:space="preserve">SobreCarga </t>
-  </si>
-  <si>
     <t>Integración de cargas</t>
   </si>
   <si>
@@ -207,21 +204,9 @@
     <t>Carga por pañuelos(pendientes)</t>
   </si>
   <si>
-    <t xml:space="preserve">Muros Fachada </t>
-  </si>
-  <si>
     <t>kgf/m</t>
   </si>
   <si>
-    <t xml:space="preserve">Muros Interiores </t>
-  </si>
-  <si>
-    <t>Muro de techo fachada</t>
-  </si>
-  <si>
-    <t>Vt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carga Viva </t>
   </si>
   <si>
@@ -249,13 +234,70 @@
     <t xml:space="preserve">Balcon </t>
   </si>
   <si>
-    <t xml:space="preserve">Carga Viva de techo </t>
-  </si>
-  <si>
-    <t>Muros</t>
-  </si>
-  <si>
     <t>Total Techo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SobreCarga en Losa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SobreCarga Lineal </t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Block C</t>
+  </si>
+  <si>
+    <t>Repello</t>
+  </si>
+  <si>
+    <t>1cm*2000kg/cm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altura </t>
+  </si>
+  <si>
+    <t>Total Muro Completo</t>
+  </si>
+  <si>
+    <t>kg/m</t>
+  </si>
+  <si>
+    <t>Total Muro Techo</t>
+  </si>
+  <si>
+    <t>Muro Techo Perimetral</t>
+  </si>
+  <si>
+    <t>Muro Techo Interno</t>
+  </si>
+  <si>
+    <t>Muro  Entrepiso Completo</t>
+  </si>
+  <si>
+    <t>(NSE 3 Tabla B-3)</t>
+  </si>
+  <si>
+    <t>(NSE 3 Tabla B-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viva techo sin Acceso </t>
+  </si>
+  <si>
+    <t>Viva techo con Acceso</t>
+  </si>
+  <si>
+    <t>Elevador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velevador 45cm X 25 cm </t>
+  </si>
+  <si>
+    <t>VtNOAcceso</t>
+  </si>
+  <si>
+    <t>VtSIAcceso</t>
   </si>
 </sst>
 </file>
@@ -266,7 +308,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;m&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;cm&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +346,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +385,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -370,36 +425,85 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -414,20 +518,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,12 +562,13 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -760,28 +885,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E852CF4-0565-428E-91EE-10090B20FCE8}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -795,7 +927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -809,7 +941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -820,12 +952,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -833,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -841,27 +974,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -872,12 +1007,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -888,671 +1024,940 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <f>B27/14</f>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f>B28/14</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>0.5</v>
       </c>
-      <c r="C30" s="5">
-        <f>B27/10</f>
+      <c r="C31" s="5">
+        <f>B28/10</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <f>B30/2</f>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f>B31/2</f>
         <v>0.25</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>0.3</v>
       </c>
-      <c r="C33" s="5">
-        <f>2*B30/3</f>
+      <c r="C34" s="5">
+        <f>2*B31/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="str">
-        <f>CONCATENATE("VX ",B30*100,"cm X ",B33*100,"cm")</f>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="str">
+        <f>CONCATENATE("VX ",B31*100,"cm X ",B34*100,"cm")</f>
         <v>VX 50cm X 30cm</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
-        <f>B38/14</f>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <f>B39/14</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>0.45</v>
       </c>
-      <c r="C41" s="5">
-        <f>B38/10</f>
+      <c r="C42" s="5">
+        <f>B39/10</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
-        <f>B41/2</f>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <f>B42/2</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>0.25</v>
       </c>
-      <c r="C44" s="5">
-        <f>2*B41/3</f>
+      <c r="C45" s="5">
+        <f>2*B42/3</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="str">
-        <f>CONCATENATE("VY ",B41*100,"cm X ",B44*100,"cm")</f>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="str">
+        <f>CONCATENATE("VY ",B42*100,"cm X ",B45*100,"cm")</f>
         <v>VY 45cm X 25cm</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>45</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B52" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="str">
-        <f>CONCATENATE( "C ", A51, "cm X ",B51,"cm")</f>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="str">
+        <f>CONCATENATE( "C ", A52, "cm X ",B52,"cm")</f>
         <v>C 45cm X 45cm</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B59" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B61" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="str">
-        <f>CONCATENATE( " Losa= ", B60, " cm")</f>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="str">
+        <f>CONCATENATE( " Losa= ", B61, " cm")</f>
         <v xml:space="preserve"> Losa= 13 cm</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-    </row>
-    <row r="68" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="14" t="s">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="15" t="str">
-        <f>A35</f>
+      <c r="B72" s="23" t="str">
+        <f>A36</f>
         <v>VX 50cm X 30cm</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="13" t="s">
+      <c r="C72" s="23"/>
+      <c r="D72" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="15" t="str">
-        <f>A46</f>
+      <c r="B73" s="23" t="str">
+        <f>A47</f>
         <v>VY 45cm X 25cm</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="23"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B75" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="12" t="s">
+      <c r="C75" s="23"/>
+      <c r="D75" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+      <c r="E75" s="17"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="str">
-        <f>A53</f>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="23" t="str">
+        <f>A54</f>
         <v>C 45cm X 45cm</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="11" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="str">
-        <f>A62</f>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="23" t="str">
+        <f>A63</f>
         <v xml:space="preserve"> Losa= 13 cm</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="13" t="s">
+      <c r="C82" s="23"/>
+      <c r="D82" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="13"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-    </row>
-    <row r="84" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="14" t="s">
+      <c r="E82" s="22"/>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="10" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="21"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B91" s="28"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88">
+      <c r="D92">
         <f>1.5*35</f>
         <v>52.5</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+      <c r="D93">
+        <v>77</v>
+      </c>
+      <c r="E93" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>54</v>
       </c>
-      <c r="D89">
-        <v>77</v>
-      </c>
-      <c r="E89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90">
+      <c r="D94">
         <f>2.2*5</f>
         <v>11</v>
       </c>
-      <c r="E90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="19" t="s">
+      <c r="E94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10">
+        <v>15</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19">
-        <v>15</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1">
+        <f>SUM(D92:D95)</f>
+        <v>155.5</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1">
-        <f>SUM(D88:D91)</f>
-        <v>155.5</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B98" s="28"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95">
+      <c r="D99">
         <f>40*1.5</f>
         <v>60</v>
       </c>
-      <c r="E95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
-        <v>55</v>
-      </c>
-      <c r="D96">
+      <c r="E99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100">
         <f>2.2*5</f>
         <v>11</v>
       </c>
-      <c r="E96" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19">
+      <c r="E100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10">
         <v>15</v>
       </c>
-      <c r="E97" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
+      <c r="E101" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1">
+        <f>SUM(D99:D101)</f>
+        <v>86</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107">
+        <v>163</v>
+      </c>
+      <c r="E107" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10">
+        <v>20</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="D109">
+        <f>SUM(D107:D108)</f>
+        <v>183</v>
+      </c>
+      <c r="E109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1">
-        <f>SUM(D95:D97)</f>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1">
+        <f>D109*D111</f>
+        <v>585.6</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115">
+        <v>163</v>
+      </c>
+      <c r="E115" t="s">
+        <v>52</v>
+      </c>
+      <c r="F115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10">
+        <v>20</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="D117">
+        <f>SUM(D115:D116)</f>
+        <v>183</v>
+      </c>
+      <c r="E117" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1">
+        <f>D117*D119</f>
+        <v>219.6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="28"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+      <c r="D123">
+        <v>163</v>
+      </c>
+      <c r="E123" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10">
+        <v>20</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f>SUM(D123:D124)</f>
+        <v>183</v>
+      </c>
+      <c r="E125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1">
+        <f>D125*D127</f>
+        <v>329.40000000000003</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B133" s="28"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134">
+        <v>200</v>
+      </c>
+      <c r="E134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135">
+        <v>200</v>
+      </c>
+      <c r="E135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136">
+        <v>500</v>
+      </c>
+      <c r="E136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137">
+        <v>200</v>
+      </c>
+      <c r="E137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D138">
+        <v>500</v>
+      </c>
+      <c r="E138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139">
+        <v>500</v>
+      </c>
+      <c r="E139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140">
+        <v>300</v>
+      </c>
+      <c r="E140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B142" s="28"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143">
+        <v>100</v>
+      </c>
+      <c r="E143" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103">
+      <c r="B145" s="28"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>90</v>
+      </c>
+      <c r="D146">
         <v>200</v>
       </c>
-      <c r="E103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104">
-        <v>500</v>
-      </c>
-      <c r="E104" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105">
-        <v>500</v>
-      </c>
-      <c r="E105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
-        <v>70</v>
-      </c>
-      <c r="D106">
-        <v>500</v>
-      </c>
-      <c r="E106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>71</v>
-      </c>
-      <c r="D107">
-        <v>500</v>
-      </c>
-      <c r="E107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>72</v>
-      </c>
-      <c r="D108">
-        <v>500</v>
-      </c>
-      <c r="E108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109">
-        <v>500</v>
-      </c>
-      <c r="E109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B113" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113">
-        <v>550</v>
-      </c>
-      <c r="E113" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B114" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114">
-        <v>400</v>
-      </c>
-      <c r="E114" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
-        <v>63</v>
-      </c>
-      <c r="D115">
-        <v>150</v>
-      </c>
-      <c r="E115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118">
-        <v>100</v>
-      </c>
-      <c r="E118" t="s">
-        <v>61</v>
+      <c r="E146" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B71:C71"/>
+  <mergeCells count="39">
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33 B44" xr:uid="{F380D85B-88D6-4D3E-B731-B16F9271F5AB}">
-      <formula1>E33</formula1>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B45" xr:uid="{F380D85B-88D6-4D3E-B731-B16F9271F5AB}">
+      <formula1>E34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vaq ETABS/PROYECTO/excel proyecto.xlsx
+++ b/vaq ETABS/PROYECTO/excel proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DFBC2-9A4F-4C4E-865B-2D40CDEE58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BBA56-0E8E-42CB-9694-C6C529AF41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C923F62-14FA-4C69-84B3-DA06D324625F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t xml:space="preserve">Materiales </t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>VtSIAcceso</t>
+  </si>
+  <si>
+    <t>revisar</t>
   </si>
 </sst>
 </file>
@@ -520,20 +523,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,25 +568,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E852CF4-0565-428E-91EE-10090B20FCE8}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,19 +902,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -953,10 +956,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -975,10 +978,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -991,10 +994,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1008,10 +1011,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1025,22 +1028,22 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1108,12 +1111,12 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="str">
+      <c r="A36" s="19" t="str">
         <f>CONCATENATE("VX ",B31*100,"cm X ",B34*100,"cm")</f>
         <v>VX 50cm X 30cm</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -1178,21 +1181,21 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="str">
+      <c r="A47" s="19" t="str">
         <f>CONCATENATE("VY ",B42*100,"cm X ",B45*100,"cm")</f>
         <v>VY 45cm X 25cm</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -1203,21 +1206,21 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="str">
+      <c r="A54" s="17" t="str">
         <f>CONCATENATE( "C ", A52, "cm X ",B52,"cm")</f>
         <v>C 45cm X 45cm</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1244,21 +1247,21 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="str">
+      <c r="A63" s="20" t="str">
         <f>CONCATENATE( " Losa= ", B61, " cm")</f>
         <v xml:space="preserve"> Losa= 13 cm</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
     </row>
     <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -1273,53 +1276,53 @@
       <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="23" t="str">
+      <c r="B72" s="17" t="str">
         <f>A36</f>
         <v>VX 50cm X 30cm</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="18" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="23" t="str">
+      <c r="B73" s="17" t="str">
         <f>A47</f>
         <v>VY 45cm X 25cm</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="17" t="s">
+      <c r="C74" s="28"/>
+      <c r="D74" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="17"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="17" t="s">
+      <c r="C75" s="17"/>
+      <c r="D75" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="17"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -1331,15 +1334,15 @@
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="23" t="str">
+      <c r="B78" s="17" t="str">
         <f>A54</f>
         <v>C 45cm X 45cm</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="27" t="s">
+      <c r="C78" s="17"/>
+      <c r="D78" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="27"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="9"/>
@@ -1355,46 +1358,46 @@
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="23" t="str">
+      <c r="B82" s="17" t="str">
         <f>A63</f>
         <v xml:space="preserve"> Losa= 13 cm</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="22" t="s">
+      <c r="C82" s="17"/>
+      <c r="D82" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="22"/>
+      <c r="E82" s="16"/>
     </row>
     <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="28"/>
+      <c r="B91" s="12"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
@@ -1463,10 +1466,10 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="28"/>
+      <c r="B98" s="12"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
@@ -1524,11 +1527,11 @@
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
@@ -1539,10 +1542,10 @@
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="28"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1621,10 +1624,10 @@
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B114" s="28"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1703,10 +1706,10 @@
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B122" s="28"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1777,31 +1780,31 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="26" t="s">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B133" s="28"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>62</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>63</v>
       </c>
@@ -1823,18 +1826,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>64</v>
       </c>
-      <c r="D136">
-        <v>500</v>
+      <c r="D136" s="1">
+        <v>200</v>
       </c>
       <c r="E136" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>65</v>
       </c>
@@ -1845,29 +1851,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>66</v>
       </c>
-      <c r="D138">
-        <v>500</v>
+      <c r="D138" s="1">
+        <v>200</v>
       </c>
       <c r="E138" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>67</v>
       </c>
-      <c r="D139">
-        <v>500</v>
+      <c r="D139" s="1">
+        <v>200</v>
       </c>
       <c r="E139" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>68</v>
       </c>
@@ -1878,13 +1890,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="28" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B142" s="28"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="12"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>89</v>
       </c>
@@ -1896,10 +1908,10 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B145" s="28"/>
+      <c r="B145" s="12"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
@@ -1914,16 +1926,19 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B82:C82"/>
@@ -1940,19 +1955,16 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A122:B122"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">

--- a/vaq ETABS/PROYECTO/excel proyecto.xlsx
+++ b/vaq ETABS/PROYECTO/excel proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BBA56-0E8E-42CB-9694-C6C529AF41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8D58C-B815-464A-865A-74D452869FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C923F62-14FA-4C69-84B3-DA06D324625F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t xml:space="preserve">Materiales </t>
   </si>
@@ -165,12 +165,6 @@
     <t xml:space="preserve">Vigas, Columnas </t>
   </si>
   <si>
-    <t xml:space="preserve">Propiedades de Materiales   </t>
-  </si>
-  <si>
-    <t>Vvoladizo35X25cm</t>
-  </si>
-  <si>
     <t>Integración de cargas</t>
   </si>
   <si>
@@ -291,16 +285,19 @@
     <t>Elevador</t>
   </si>
   <si>
-    <t xml:space="preserve">Velevador 45cm X 25 cm </t>
-  </si>
-  <si>
     <t>VtNOAcceso</t>
   </si>
   <si>
     <t>VtSIAcceso</t>
   </si>
   <si>
-    <t>revisar</t>
+    <t xml:space="preserve">Velevador 40cm X 40 cm </t>
+  </si>
+  <si>
+    <t>Vvoladizo40X40cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propiedades de Materiales  Modificadas  </t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -523,35 +520,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,10 +553,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -888,1088 +889,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E852CF4-0565-428E-91EE-10090B20FCE8}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="B1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>280</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>210</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4200</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3.2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>1.8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <f>B28/14</f>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f>C28/14</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>0.5</v>
       </c>
-      <c r="C31" s="5">
-        <f>B28/10</f>
+      <c r="D31" s="5">
+        <f>C28/10</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <f>B31/2</f>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f>C31/2</f>
         <v>0.25</v>
       </c>
-      <c r="B34" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C34" s="5">
-        <f>2*B31/3</f>
+      <c r="C34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="5">
+        <f>2*C31/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="str">
-        <f>CONCATENATE("VX ",B31*100,"cm X ",B34*100,"cm")</f>
-        <v>VX 50cm X 30cm</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="str">
+        <f>CONCATENATE("VX ",C31*100,"cm X ",C34*100,"cm")</f>
+        <v>VX 50cm X 50cm</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <f>B39/14</f>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <f>C39/14</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="B42" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="C42" s="5">
-        <f>B39/10</f>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="5">
+        <f>C39/10</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <f>B42/2</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="B45" s="3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <f>C42/2</f>
         <v>0.25</v>
       </c>
-      <c r="C45" s="5">
-        <f>2*B42/3</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="str">
-        <f>CONCATENATE("VY ",B42*100,"cm X ",B45*100,"cm")</f>
-        <v>VY 45cm X 25cm</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="C45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="5">
+        <f>2*C42/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="str">
+        <f>CONCATENATE("VY ",C42*100,"cm X ",C45*100,"cm")</f>
+        <v>VY 50cm X 50cm</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>45</v>
-      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="str">
-        <f>CONCATENATE( "C ", A52, "cm X ",B52,"cm")</f>
-        <v>C 45cm X 45cm</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="24" t="str">
+        <f>CONCATENATE( "C ", B52, "cm X ",C52,"cm")</f>
+        <v>C 65cm X 65cm</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="3">
+      <c r="C58" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="3">
+      <c r="C59" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="6">
+      <c r="C61" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="str">
-        <f>CONCATENATE( " Losa= ", B61, " cm")</f>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="26" t="str">
+        <f>CONCATENATE( " Losa= ", C61, " cm")</f>
         <v xml:space="preserve"> Losa= 13 cm</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="69" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="24" t="str">
+        <f>B36</f>
+        <v>VX 50cm X 50cm</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="20"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="24" t="str">
+        <f>B47</f>
+        <v>VY 50cm X 50cm</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="str">
+        <f>B54</f>
+        <v>C 65cm X 65cm</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="24" t="str">
+        <f>B63</f>
+        <v xml:space="preserve"> Losa= 13 cm</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="86" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="17" t="str">
-        <f>A36</f>
-        <v>VX 50cm X 30cm</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="24"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="17" t="str">
-        <f>A47</f>
-        <v>VY 45cm X 25cm</v>
-      </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="22"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="17" t="s">
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="22"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="str">
-        <f>A54</f>
-        <v>C 45cm X 45cm</v>
-      </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="str">
-        <f>A63</f>
-        <v xml:space="preserve"> Losa= 13 cm</v>
-      </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="18" t="s">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B91" s="12"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D92">
+      <c r="E92">
         <f>1.5*35</f>
         <v>52.5</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93">
-        <v>77</v>
-      </c>
-      <c r="E93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94">
+      <c r="E94">
         <f>2.2*5</f>
         <v>11</v>
       </c>
-      <c r="E94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10">
+        <v>15</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1">
+        <f>SUM(E92:E95)</f>
+        <v>155.5</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10">
-        <v>15</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1">
-        <f>SUM(D92:D95)</f>
-        <v>155.5</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="12"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99">
+      <c r="E99">
         <f>40*1.5</f>
         <v>60</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100">
+      <c r="E100">
         <f>2.2*5</f>
         <v>11</v>
       </c>
-      <c r="E100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10">
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C101" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10">
         <v>15</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1">
-        <f>SUM(D99:D101)</f>
+      <c r="F101" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1">
+        <f>SUM(E99:E101)</f>
         <v>86</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="28"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E107">
+        <v>163</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D107">
-        <v>163</v>
-      </c>
-      <c r="E107" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D108" s="10"/>
+      <c r="E108" s="10">
+        <v>20</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" t="s">
         <v>73</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <f>SUM(E107:E108)</f>
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10">
-        <v>20</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-      <c r="D109">
-        <f>SUM(D107:D108)</f>
-        <v>183</v>
-      </c>
-      <c r="E109" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1">
+        <f>E109*E111</f>
+        <v>585.6</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1">
-        <f>D109*D111</f>
-        <v>585.6</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="28"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115">
+        <v>163</v>
+      </c>
+      <c r="F115" t="s">
+        <v>50</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D115">
-        <v>163</v>
-      </c>
-      <c r="E115" t="s">
-        <v>52</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="D116" s="10"/>
+      <c r="E116" s="10">
+        <v>20</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G116" t="s">
         <v>73</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <f>SUM(E115:E116)</f>
+        <v>183</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10">
-        <v>20</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F116" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-      <c r="D117">
-        <f>SUM(D115:D116)</f>
-        <v>183</v>
-      </c>
-      <c r="E117" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="10" t="s">
+      <c r="D119" s="10"/>
+      <c r="E119" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1">
+        <f>E117*E119</f>
+        <v>219.6</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1">
-        <f>D117*D119</f>
-        <v>219.6</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="28"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123">
+        <v>163</v>
+      </c>
+      <c r="F123" t="s">
+        <v>50</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C124" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D123">
-        <v>163</v>
-      </c>
-      <c r="E123" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="D124" s="10"/>
+      <c r="E124" s="10">
+        <v>20</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G124" t="s">
         <v>73</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f>SUM(E123:E124)</f>
+        <v>183</v>
+      </c>
+      <c r="F125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10">
-        <v>20</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F124" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D125">
-        <f>SUM(D123:D124)</f>
-        <v>183</v>
-      </c>
-      <c r="E125" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="10" t="s">
+      <c r="D127" s="10"/>
+      <c r="E127" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1">
+        <f>E125*E127</f>
+        <v>329.40000000000003</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1">
-        <f>D125*D127</f>
-        <v>329.40000000000003</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="131" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="28"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
         <v>60</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="E134">
+        <v>200</v>
+      </c>
+      <c r="F134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
         <v>61</v>
       </c>
-      <c r="B133" s="12"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="E135">
+        <v>200</v>
+      </c>
+      <c r="F135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
         <v>62</v>
       </c>
-      <c r="D134">
+      <c r="E136" s="29">
         <v>200</v>
       </c>
-      <c r="E134" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+      <c r="F136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
         <v>63</v>
       </c>
-      <c r="D135">
+      <c r="E137">
         <v>200</v>
       </c>
-      <c r="E135" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
         <v>64</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E138" s="29">
         <v>200</v>
       </c>
-      <c r="E136" t="s">
-        <v>52</v>
-      </c>
-      <c r="F136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="F138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
         <v>65</v>
       </c>
-      <c r="D137">
+      <c r="E139" s="29">
         <v>200</v>
       </c>
-      <c r="E137" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="F139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E140">
+        <v>300</v>
+      </c>
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="28"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>86</v>
+      </c>
+      <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="28"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>87</v>
+      </c>
+      <c r="E146">
         <v>200</v>
       </c>
-      <c r="E138" t="s">
-        <v>52</v>
-      </c>
-      <c r="F138" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>67</v>
-      </c>
-      <c r="D139" s="1">
-        <v>200</v>
-      </c>
-      <c r="E139" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>68</v>
-      </c>
-      <c r="D140">
-        <v>300</v>
-      </c>
-      <c r="E140" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B142" s="12"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>89</v>
-      </c>
-      <c r="D143">
-        <v>100</v>
-      </c>
-      <c r="E143" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" s="12"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>90</v>
-      </c>
-      <c r="D146">
-        <v>200</v>
-      </c>
-      <c r="E146" t="s">
-        <v>59</v>
+      <c r="F146" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E72:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B45" xr:uid="{F380D85B-88D6-4D3E-B731-B16F9271F5AB}">
-      <formula1>E34</formula1>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 C45" xr:uid="{F380D85B-88D6-4D3E-B731-B16F9271F5AB}">
+      <formula1>F34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
